--- a/data/trans_bre/P16A03-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P16A03-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.13271632395722</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.798278080016801</v>
+        <v>2.798278080016802</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.253585715453706</v>
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.60723633177541</v>
+        <v>1.816711414151844</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.593213279036821</v>
+        <v>3.564940410156091</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.674872962357962</v>
+        <v>1.670026106431807</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9329298354203914</v>
+        <v>0.8007573151072249</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3003992505543243</v>
+        <v>0.3332280386618477</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>2.708690654664993</v>
+        <v>2.455811687622389</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9298046267558386</v>
+        <v>0.8613515605765547</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1961451379545792</v>
+        <v>0.1659477141236833</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.294443848059031</v>
+        <v>6.539485243979491</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.479687394728384</v>
+        <v>6.536607010210258</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.357363558463145</v>
+        <v>4.506336477903505</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.871826942878867</v>
+        <v>4.770728339336823</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.829063398153274</v>
+        <v>3.154631681396359</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>15.98805679338223</v>
+        <v>17.18208166307623</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6.232428905795451</v>
+        <v>6.343583328357799</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.769643254957924</v>
+        <v>2.699113653678023</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.616361679501523</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.738529528974239</v>
+        <v>2.738529528974241</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.92708395873523</v>
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.416292342645219</v>
+        <v>1.335651490768527</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.491449116313868</v>
+        <v>2.706155681880788</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2969050314405363</v>
+        <v>0.2848242689945834</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.355049121460079</v>
+        <v>1.297443941768079</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6698844543486678</v>
+        <v>0.6156735996169335</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.023340445594177</v>
+        <v>1.179799417281701</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.108150815966201</v>
+        <v>0.1093885887434393</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4703903187619342</v>
+        <v>0.3742151023889461</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.119813411330242</v>
+        <v>4.258093795036398</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.708327909600965</v>
+        <v>5.912385588850958</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.180738875339475</v>
+        <v>3.031312251855499</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.11288872216927</v>
+        <v>4.032088164882278</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>4.540459107800955</v>
+        <v>4.654563526302026</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>8.051728774224456</v>
+        <v>8.004374352368483</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.459750661461613</v>
+        <v>3.215227323840013</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.005078221280294</v>
+        <v>2.844134909181141</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.318379570723692</v>
+        <v>1.329514800301396</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.570592696542789</v>
+        <v>3.435983149744048</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.059999587229386</v>
+        <v>1.914365638524844</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.838894309058821</v>
+        <v>1.835277687626502</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4695206684331495</v>
+        <v>0.4611646521112072</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1.310666176891968</v>
+        <v>1.372349195536132</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8296912109269754</v>
+        <v>0.7290862996963215</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.5987096085156549</v>
+        <v>0.6172968569885452</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.403717612478646</v>
+        <v>4.583613287713452</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.481438371558356</v>
+        <v>7.598091419094864</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.684049568988377</v>
+        <v>5.637664707215081</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.479444888929067</v>
+        <v>4.557517976714949</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.350812165738162</v>
+        <v>3.435630860267182</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>7.724600002226111</v>
+        <v>7.493104677276267</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>5.549121803678245</v>
+        <v>5.8220064404251</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>3.688300797339334</v>
+        <v>3.703445458266527</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.1317411560293</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.980745749222959</v>
+        <v>3.980745749222958</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2963263280781532</v>
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.452996235234891</v>
+        <v>-1.866530364510421</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.130874225376071</v>
+        <v>1.209774435895041</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.46162497074719</v>
+        <v>1.636912986399169</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.262210855613564</v>
+        <v>2.147149562486413</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.392786131200243</v>
+        <v>-0.5075091142220232</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1721465443302654</v>
+        <v>0.1288005969122043</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.700249755916421</v>
+        <v>0.8542568187103697</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.6410153672275353</v>
+        <v>0.6206396618716434</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.845340656865981</v>
+        <v>3.445347752096733</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.000810618295127</v>
+        <v>6.84881865718008</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.232699017356371</v>
+        <v>5.478655399237244</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.799218814976895</v>
+        <v>5.684642254385295</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.205944309201812</v>
+        <v>1.774750464971805</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5.537359685659592</v>
+        <v>5.031281182856215</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>24.12872991173957</v>
+        <v>27.54280671010713</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3.380922088007499</v>
+        <v>3.339755575897302</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.106888199320203</v>
+        <v>2.138218085540437</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.755084141956253</v>
+        <v>3.643256811379097</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.083818263227051</v>
+        <v>2.046547164006062</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.366904105267492</v>
+        <v>2.439662814522313</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7836406045920327</v>
+        <v>0.7859997501235068</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>2.203454165056934</v>
+        <v>2.166969496440835</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.284850549017269</v>
+        <v>1.322579778405201</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.8752713643441016</v>
+        <v>0.9605017920216828</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.073337354601965</v>
+        <v>4.063398592909626</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.62407211274042</v>
+        <v>5.673405737319719</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.70346412841081</v>
+        <v>3.656528910221832</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.994890028285962</v>
+        <v>4.013285359814037</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.260810772952305</v>
+        <v>2.268253571091841</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5.480058122474985</v>
+        <v>5.498122965097318</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3.629005371747583</v>
+        <v>3.678146281093981</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.158913332693385</v>
+        <v>2.244334380693251</v>
       </c>
     </row>
     <row r="19">
